--- a/24.4.24~24.4.30/实验数据.xlsx
+++ b/24.4.24~24.4.30/实验数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.4.24~24.4.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0CFCD0-D035-44D3-8268-F559BE789664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378800E-A2AA-456C-8FE4-2FF421D22EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>并发量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,18 @@
 在核心数为1~4时，执行时间正常降低。大致情况是协程优于线程优于原情况。
 核心数&gt;5时，各个处理时间均有升高，可能是因为Linux虚拟机只有4个核心，其需要为QEMU模拟出多于4个核心，就在Linux中引入了任务切换开销。
 我们的实现受该升高的影响更大，可能是因为我们的实现在没有任务时，CPU也会忙等，从而挤占了有效任务的执行时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个图也是受偶发高实验影响太大，因此呈现效果不好。
+小包情况下，原情况因为偶发情况的时延最低，因此在图上看效果最好。
+大包情况下，两种采用轮询的方法取得的效果最好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本图中，效果最好的也是原情况。
+可能是由于测试的是低并发情景，此时每个TCP连接自己调用poll开销也不大。
+反而引入轮询和中断后，因为引入了额外任务，因此增加了开销。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7284,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9239,10 +9251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD26F85-BF7F-4FAF-9C84-3CBC2FAE3348}">
-  <dimension ref="A1:BS59"/>
+  <dimension ref="A1:BS61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T39" workbookViewId="0">
-      <selection activeCell="AE38" sqref="AE38"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10863,7 +10875,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="AG29">
         <v>26</v>
       </c>
@@ -11323,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG49">
         <v>5</v>
       </c>
@@ -11346,7 +11368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG50">
         <v>10</v>
       </c>
@@ -11369,7 +11391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG51">
         <v>15</v>
       </c>
@@ -11392,7 +11414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG52">
         <v>25</v>
       </c>
@@ -11415,7 +11437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG53">
         <v>50</v>
       </c>
@@ -11438,7 +11460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG54">
         <v>100</v>
       </c>
@@ -11461,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG55">
         <v>200</v>
       </c>
@@ -11484,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG56">
         <v>500</v>
       </c>
@@ -11507,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG57">
         <v>1000</v>
       </c>
@@ -11530,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AG58">
         <v>2000</v>
       </c>
@@ -11553,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="33:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="24:39" x14ac:dyDescent="0.25">
       <c r="AH59">
         <v>0</v>
       </c>
@@ -11573,8 +11595,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="24:39" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="X61:AE61"/>
     <mergeCell ref="BO3:BS3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>

--- a/24.4.24~24.4.30/实验数据.xlsx
+++ b/24.4.24~24.4.30/实验数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.4.24~24.4.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378800E-A2AA-456C-8FE4-2FF421D22EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C7ACE-BA20-443B-8A23-BC7D1EC253BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 任务调度实验" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>并发量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,120 +178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>round 0:</t>
-  </si>
-  <si>
-    <t>2.040150282s</t>
-  </si>
-  <si>
-    <t>4.714189659s</t>
-  </si>
-  <si>
-    <t>9.471250367s</t>
-  </si>
-  <si>
-    <t>12.483524358s</t>
-  </si>
-  <si>
-    <t>14.553170264s</t>
-  </si>
-  <si>
-    <t>16.472483203s</t>
-  </si>
-  <si>
-    <t>round 1:</t>
-  </si>
-  <si>
-    <t>3.426513392s</t>
-  </si>
-  <si>
-    <t>6.491109709s</t>
-  </si>
-  <si>
-    <t>10.005034689s</t>
-  </si>
-  <si>
-    <t>9.096208514s</t>
-  </si>
-  <si>
-    <t>14.490512925s</t>
-  </si>
-  <si>
-    <t>20.012226495s</t>
-  </si>
-  <si>
-    <t>round 2:</t>
-  </si>
-  <si>
-    <t>2.397539043s</t>
-  </si>
-  <si>
-    <t>4.134573537s</t>
-  </si>
-  <si>
-    <t>8.475561502s</t>
-  </si>
-  <si>
-    <t>12.389603979s</t>
-  </si>
-  <si>
-    <t>13.031043741s</t>
-  </si>
-  <si>
-    <t>19.959379205s</t>
-  </si>
-  <si>
-    <t>round 3:</t>
-  </si>
-  <si>
-    <t>5.987258ms</t>
-  </si>
-  <si>
-    <t>2.128390343s</t>
-  </si>
-  <si>
-    <t>9.054526773s</t>
-  </si>
-  <si>
-    <t>9.845138891s</t>
-  </si>
-  <si>
-    <t>17.931916483s</t>
-  </si>
-  <si>
-    <t>15.605777583s</t>
-  </si>
-  <si>
-    <t>round 4:</t>
-  </si>
-  <si>
-    <t>2.072552113s</t>
-  </si>
-  <si>
-    <t>4.466758355s</t>
-  </si>
-  <si>
-    <t>10.016138378s</t>
-  </si>
-  <si>
-    <t>14.835154305s</t>
-  </si>
-  <si>
-    <t>14.996442288s</t>
-  </si>
-  <si>
-    <t>18.134260284s</t>
-  </si>
-  <si>
     <t>单位：s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位：每秒请求数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试参数：100个请求，50并行度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,6 +218,117 @@
     <t>本图中，效果最好的也是原情况。
 可能是由于测试的是低并发情景，此时每个TCP连接自己调用poll开销也不大。
 反而引入轮询和中断后，因为引入了额外任务，因此增加了开销。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PING_INLINE</t>
+  </si>
+  <si>
+    <t>PING_BULK</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>INCR</t>
+  </si>
+  <si>
+    <t>LPUSH</t>
+  </si>
+  <si>
+    <t>RPUSH</t>
+  </si>
+  <si>
+    <t>LPOP</t>
+  </si>
+  <si>
+    <t>RPOP</t>
+  </si>
+  <si>
+    <t>SADD</t>
+  </si>
+  <si>
+    <t>HSET</t>
+  </si>
+  <si>
+    <t>SPOP</t>
+  </si>
+  <si>
+    <t>ZADD</t>
+  </si>
+  <si>
+    <t>ZPOPMIN</t>
+  </si>
+  <si>
+    <t>LPUSH (needed to benchmark LRANGE)</t>
+  </si>
+  <si>
+    <t>LRANGE_100 (first 100 elements)</t>
+  </si>
+  <si>
+    <t>LRANGE_300 (first 300 elements)</t>
+  </si>
+  <si>
+    <t>LRANGE_500 (first 450 elements)</t>
+  </si>
+  <si>
+    <t>LRANGE_600 (first 600 elements)</t>
+  </si>
+  <si>
+    <t>MSET (10 keys)</t>
+  </si>
+  <si>
+    <t>轮询协程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试参数：30个请求，30并行度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*该条件下，均出现了实时速率降低的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐率（连接数/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原情况</t>
+  </si>
+  <si>
+    <t>LPUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRANGE_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRANGE_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRANGE_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRANGE_600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4051,6 +4053,2814 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>原情况</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$B$33:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.843804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0039829999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4509919999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9999260000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.748805000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393.013642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>修改的调度模块+原网络模块</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.589828000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.087343000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.157425999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.23474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.960432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3049770000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$D$33:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.655666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.014443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.414906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3850210000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.152114000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.246885000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$E$33:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.646274999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.927873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5417459999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3267709999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.041304999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.829211000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$F$33:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.104626000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.55251699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.298343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6124520000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.129417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.597429000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$G$33:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.430675000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.266541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6121220000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3946230000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169.23287400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.841666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-23DB-4AF1-A836-458D3D53A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="799623736"/>
+        <c:axId val="799624816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="799623736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799624816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="799624816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799623736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AP$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>原情况</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AP$22:$AP$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8751461771071285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8049992538491275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5450638998590918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8496471372836374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5480522066340703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6696068325306992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AQ$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>修改的调度模块+原网络模块</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AQ$22:$AQ$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>159.4544634047904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1101576694483888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6099844007248718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0906454248729909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.257230386719113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1675675414267745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AR$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AR$22:$AR$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7315591577727778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5929495870496049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1406803566658517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5638469827804524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5454077037310365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5068531604700626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AS$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AS$22:$AS$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8018818193024542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5468934929700255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2315336796105867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2655796128136041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5467835046134741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3241112116606031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AT$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AT$22:$AT$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0048431203807646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7605681873382539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8586581852526343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4933126254700175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6334450996573964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9285426895548514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2. 网络实验'!$AU$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AO$22:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 网络实验'!$AU$22:$AU$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2547799755425735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8777768023926147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3615675037117989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0322088951889858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8483278476094174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9556447155262986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5E9B-4C93-8D57-2F216968A6CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="792914592"/>
+        <c:axId val="792915312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="792914592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792915312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792915312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792914592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>原情况</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$B$26:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>656.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.06400000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694.84799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>890.28800000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1324.0639999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>913.11400000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741.11199999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>989.18999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>595.6880000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1262.4180000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1275.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1088.7060000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>620.34800000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>484.48400000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>493.88800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>629.94799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>783.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>943.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1158.2959999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>修改的调度模块+原网络模块</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$C$26:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3591.9440000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3154.5440000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1596.3420000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>592.70799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>582.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1069.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>946.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1245.9420000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>794.13200000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1006.0699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1188.1640000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1356.9740000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>924.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1368.1320000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>662.84999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1073.8780000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1333.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$D$26:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1089.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>741.09400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1439.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1584.636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2096.5919999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1028.422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1339.104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1119.9559999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1112.644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1086.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1185.2860000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>896.68799999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1318.1240000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1248.5160000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>988.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>789.79600000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>778.83799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1248.6279999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>708.04200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>轮询协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$E$26:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>967.29200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1299.5520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921.71800000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.9799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1544.7620000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>812.51999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>871.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1549.1460000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1004.952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>865.75200000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>552.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>992.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>832.59799999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>850.75200000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1062.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>608.51800000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>999.74000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1006.3619999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>778.91399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$F$26:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1659.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1062.1320000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>892.87599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1191.6179999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1263.1560000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1039.002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1019.1200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>814.56999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>901.55200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1182.9359999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>545.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>638.55399999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>944.64200000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>617.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1045.7779999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1176.768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1129.6740000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1121.9299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中断协程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3. Redis实验'!$A$26:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>PING_INLINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PING_BULK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GET</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>INCR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RPUSH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LPOP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RPOP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SADD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HSET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPOP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZADD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZPOPMIN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LPUSH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LRANGE_100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LRANGE_300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LRANGE_500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LRANGE_600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MSET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3. Redis实验'!$G$26:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1185.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2058.9439999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1280.636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>844.15599999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>515.95999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>741.61200000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>870.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>755.24600000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464.19600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1136.2860000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1182.704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1098.2239999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>966.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>938.84599999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>854.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>572.12200000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>492.892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>656.45400000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1471.2239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B92-4FDC-87C3-57BE076F0621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="792885432"/>
+        <c:axId val="792891552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="792885432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792891552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792891552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792885432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4251,6 +7061,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6809,6 +9739,1541 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7023,6 +11488,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD8EF54-276B-ACE7-E49C-C26225FED625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035563D2-CC09-7A63-6F70-31142734EEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181FE600-B5ED-4B73-E07F-3572BAC523B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7383,7 +11961,7 @@
         <v>4</v>
       </c>
       <c r="AP3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="s">
         <v>9</v>
@@ -9029,7 +13607,7 @@
     </row>
     <row r="31" spans="1:45" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -9039,7 +13617,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="X31" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -9253,8 +13831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD26F85-BF7F-4FAF-9C84-3CBC2FAE3348}">
   <dimension ref="A1:BS61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9287,7 +13865,7 @@
         <v>30</v>
       </c>
       <c r="AT2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.25">
@@ -9521,20 +14099,95 @@
       <c r="AO4">
         <v>5</v>
       </c>
-      <c r="AP4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>60</v>
+      <c r="AP4">
+        <v>3.1965252249999998</v>
+      </c>
+      <c r="AQ4">
+        <v>3.2633979659999999</v>
+      </c>
+      <c r="AR4">
+        <v>1.649917268</v>
+      </c>
+      <c r="AS4">
+        <v>2.6502027090000002</v>
+      </c>
+      <c r="AT4">
+        <v>3.6703068619999999</v>
+      </c>
+      <c r="AU4">
+        <v>2.062501245</v>
+      </c>
+      <c r="AV4">
+        <v>1.309063393</v>
+      </c>
+      <c r="AW4">
+        <v>2.150607613</v>
+      </c>
+      <c r="AX4">
+        <v>2.896823344</v>
+      </c>
+      <c r="AY4">
+        <v>6.3534209999999997E-3</v>
+      </c>
+      <c r="AZ4">
+        <v>2.4144526040000001</v>
+      </c>
+      <c r="BA4">
+        <v>2.0428045379999999</v>
+      </c>
+      <c r="BB4">
+        <v>2.0621919630000001</v>
+      </c>
+      <c r="BC4">
+        <v>2.599168342</v>
+      </c>
+      <c r="BD4">
+        <v>1.04361894</v>
+      </c>
+      <c r="BE4">
+        <v>2.0710127470000002</v>
+      </c>
+      <c r="BF4">
+        <v>2.0367615940000001</v>
+      </c>
+      <c r="BG4">
+        <v>1.046404406</v>
+      </c>
+      <c r="BH4">
+        <v>2.6126198610000002</v>
+      </c>
+      <c r="BI4">
+        <v>2.0423177959999999</v>
+      </c>
+      <c r="BJ4">
+        <v>2.1565444</v>
+      </c>
+      <c r="BK4">
+        <v>2.9230597500000002</v>
+      </c>
+      <c r="BL4">
+        <v>3.0166711249999998</v>
+      </c>
+      <c r="BM4">
+        <v>2.0855745080000001</v>
+      </c>
+      <c r="BN4">
+        <v>2.5769501039999998</v>
+      </c>
+      <c r="BO4">
+        <v>1.5946994219999999</v>
+      </c>
+      <c r="BP4">
+        <v>1.72000782</v>
+      </c>
+      <c r="BQ4">
+        <v>2.961913381</v>
+      </c>
+      <c r="BR4">
+        <v>2.95796598</v>
+      </c>
+      <c r="BS4">
+        <v>2.698180668</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
@@ -9655,20 +14308,95 @@
       <c r="AO5">
         <v>10</v>
       </c>
-      <c r="AP5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>61</v>
+      <c r="AP5">
+        <v>4.7754101660000003</v>
+      </c>
+      <c r="AQ5">
+        <v>6.7244839479999996</v>
+      </c>
+      <c r="AR5">
+        <v>5.0454516470000002</v>
+      </c>
+      <c r="AS5">
+        <v>5.0118255209999996</v>
+      </c>
+      <c r="AT5">
+        <v>6.8186392580000001</v>
+      </c>
+      <c r="AU5">
+        <v>4.9706020649999996</v>
+      </c>
+      <c r="AV5">
+        <v>2.066939031</v>
+      </c>
+      <c r="AW5">
+        <v>2.0821180479999999</v>
+      </c>
+      <c r="AX5">
+        <v>6.372069819</v>
+      </c>
+      <c r="AY5">
+        <v>4.29417297</v>
+      </c>
+      <c r="AZ5">
+        <v>5.3146815610000004</v>
+      </c>
+      <c r="BA5">
+        <v>4.1579455220000003</v>
+      </c>
+      <c r="BB5">
+        <v>3.1709413120000001</v>
+      </c>
+      <c r="BC5">
+        <v>4.1129286870000001</v>
+      </c>
+      <c r="BD5">
+        <v>3.2329621789999998</v>
+      </c>
+      <c r="BE5">
+        <v>4.1486281150000002</v>
+      </c>
+      <c r="BF5">
+        <v>3.093213049</v>
+      </c>
+      <c r="BG5">
+        <v>5.8914289059999998</v>
+      </c>
+      <c r="BH5">
+        <v>3.3846748</v>
+      </c>
+      <c r="BI5">
+        <v>4.0995820060000003</v>
+      </c>
+      <c r="BJ5">
+        <v>5.2357291779999997</v>
+      </c>
+      <c r="BK5">
+        <v>6.0025966850000003</v>
+      </c>
+      <c r="BL5">
+        <v>6.0175883060000004</v>
+      </c>
+      <c r="BM5">
+        <v>5.7651796969999998</v>
+      </c>
+      <c r="BN5">
+        <v>5.4627047400000004</v>
+      </c>
+      <c r="BO5">
+        <v>4.014430935</v>
+      </c>
+      <c r="BP5">
+        <v>5.0394991410000003</v>
+      </c>
+      <c r="BQ5">
+        <v>6.0172418900000002</v>
+      </c>
+      <c r="BR5">
+        <v>6.0320690209999999</v>
+      </c>
+      <c r="BS5">
+        <v>6.2741169079999999</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
@@ -9789,20 +14517,95 @@
       <c r="AO6">
         <v>15</v>
       </c>
-      <c r="AP6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>62</v>
+      <c r="AP6">
+        <v>9.5116575789999995</v>
+      </c>
+      <c r="AQ6">
+        <v>8.7592684839999997</v>
+      </c>
+      <c r="AR6">
+        <v>9.9488996739999997</v>
+      </c>
+      <c r="AS6">
+        <v>10.006848849000001</v>
+      </c>
+      <c r="AT6">
+        <v>10.495692378999999</v>
+      </c>
+      <c r="AU6">
+        <v>6.5259774420000003</v>
+      </c>
+      <c r="AV6">
+        <v>5.1252582670000004</v>
+      </c>
+      <c r="AW6">
+        <v>5.1295570799999997</v>
+      </c>
+      <c r="AX6">
+        <v>5.1475268160000001</v>
+      </c>
+      <c r="AY6">
+        <v>7.5510294079999998</v>
+      </c>
+      <c r="AZ6">
+        <v>6.2241049400000001</v>
+      </c>
+      <c r="BA6">
+        <v>7.1962586770000003</v>
+      </c>
+      <c r="BB6">
+        <v>6.1401304010000004</v>
+      </c>
+      <c r="BC6">
+        <v>8.1121003050000002</v>
+      </c>
+      <c r="BD6">
+        <v>7.8248655960000004</v>
+      </c>
+      <c r="BE6">
+        <v>7.0756860699999997</v>
+      </c>
+      <c r="BF6">
+        <v>8.2293331609999996</v>
+      </c>
+      <c r="BG6">
+        <v>6.5698288529999997</v>
+      </c>
+      <c r="BH6">
+        <v>7.2608673059999997</v>
+      </c>
+      <c r="BI6">
+        <v>5.2338642489999998</v>
+      </c>
+      <c r="BJ6">
+        <v>8.7554334600000008</v>
+      </c>
+      <c r="BK6">
+        <v>8.0670996250000009</v>
+      </c>
+      <c r="BL6">
+        <v>9.7767729069999998</v>
+      </c>
+      <c r="BM6">
+        <v>7.2187561569999996</v>
+      </c>
+      <c r="BN6">
+        <v>7.1140761589999997</v>
+      </c>
+      <c r="BO6">
+        <v>3.9250441039999999</v>
+      </c>
+      <c r="BP6">
+        <v>6.5944254080000002</v>
+      </c>
+      <c r="BQ6">
+        <v>10.020511333</v>
+      </c>
+      <c r="BR6">
+        <v>6.0053941469999996</v>
+      </c>
+      <c r="BS6">
+        <v>8.7367181239999994</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
@@ -9923,20 +14726,95 @@
       <c r="AO7">
         <v>20</v>
       </c>
-      <c r="AP7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>63</v>
+      <c r="AP7">
+        <v>9.4768420280000001</v>
+      </c>
+      <c r="AQ7">
+        <v>10.006161593</v>
+      </c>
+      <c r="AR7">
+        <v>11.292816004000001</v>
+      </c>
+      <c r="AS7">
+        <v>12.342354758000001</v>
+      </c>
+      <c r="AT7">
+        <v>11.444359306999999</v>
+      </c>
+      <c r="AU7">
+        <v>8.5275210809999997</v>
+      </c>
+      <c r="AV7">
+        <v>3.081936341</v>
+      </c>
+      <c r="AW7">
+        <v>7.6419372350000003</v>
+      </c>
+      <c r="AX7">
+        <v>9.2108036700000007</v>
+      </c>
+      <c r="AY7">
+        <v>10.92924646</v>
+      </c>
+      <c r="AZ7">
+        <v>9.0654223349999992</v>
+      </c>
+      <c r="BA7">
+        <v>8.2033525970000003</v>
+      </c>
+      <c r="BB7">
+        <v>9.8387436160000004</v>
+      </c>
+      <c r="BC7">
+        <v>5.124184745</v>
+      </c>
+      <c r="BD7">
+        <v>8.9318315049999999</v>
+      </c>
+      <c r="BE7">
+        <v>10.084463322</v>
+      </c>
+      <c r="BF7">
+        <v>9.2514871890000006</v>
+      </c>
+      <c r="BG7">
+        <v>10.161757547000001</v>
+      </c>
+      <c r="BH7">
+        <v>7.5668568159999996</v>
+      </c>
+      <c r="BI7">
+        <v>7.7773627410000001</v>
+      </c>
+      <c r="BJ7">
+        <v>10.08632819</v>
+      </c>
+      <c r="BK7">
+        <v>9.7507644730000003</v>
+      </c>
+      <c r="BL7">
+        <v>4.9919411980000001</v>
+      </c>
+      <c r="BM7">
+        <v>10.014367765999999</v>
+      </c>
+      <c r="BN7">
+        <v>8.2339368739999994</v>
+      </c>
+      <c r="BO7">
+        <v>9.7406379889999997</v>
+      </c>
+      <c r="BP7">
+        <v>10.629413928</v>
+      </c>
+      <c r="BQ7">
+        <v>9.7101857220000003</v>
+      </c>
+      <c r="BR7">
+        <v>8.9684141900000007</v>
+      </c>
+      <c r="BS7">
+        <v>10.328027976</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
@@ -10057,20 +14935,95 @@
       <c r="AO8">
         <v>25</v>
       </c>
-      <c r="AP8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>64</v>
+      <c r="AP8">
+        <v>15.001844416999999</v>
+      </c>
+      <c r="AQ8">
+        <v>16.245231507</v>
+      </c>
+      <c r="AR8">
+        <v>17.038006339999999</v>
+      </c>
+      <c r="AS8">
+        <v>15.990579973999999</v>
+      </c>
+      <c r="AT8">
+        <v>16.620595917999999</v>
+      </c>
+      <c r="AU8">
+        <v>9.2157396709999997</v>
+      </c>
+      <c r="AV8">
+        <v>11.895926284</v>
+      </c>
+      <c r="AW8">
+        <v>11.258991655000001</v>
+      </c>
+      <c r="AX8">
+        <v>9.2237614479999994</v>
+      </c>
+      <c r="AY8">
+        <v>16.223195628999999</v>
+      </c>
+      <c r="AZ8">
+        <v>11.294452195</v>
+      </c>
+      <c r="BA8">
+        <v>8.2604548639999997</v>
+      </c>
+      <c r="BB8">
+        <v>11.001570672</v>
+      </c>
+      <c r="BC8">
+        <v>11.328696546</v>
+      </c>
+      <c r="BD8">
+        <v>8.3114280469999997</v>
+      </c>
+      <c r="BE8">
+        <v>9.9251135910000006</v>
+      </c>
+      <c r="BF8">
+        <v>9.2217498990000006</v>
+      </c>
+      <c r="BG8">
+        <v>9.4946057209999992</v>
+      </c>
+      <c r="BH8">
+        <v>10.253930892</v>
+      </c>
+      <c r="BI8">
+        <v>10.275764486</v>
+      </c>
+      <c r="BJ8">
+        <v>14.917236452999999</v>
+      </c>
+      <c r="BK8">
+        <v>17.174756625000001</v>
+      </c>
+      <c r="BL8">
+        <v>14.233679871</v>
+      </c>
+      <c r="BM8">
+        <v>15.007154389</v>
+      </c>
+      <c r="BN8">
+        <v>15.49505914</v>
+      </c>
+      <c r="BO8">
+        <v>15.000435935</v>
+      </c>
+      <c r="BP8">
+        <v>12.732860686</v>
+      </c>
+      <c r="BQ8">
+        <v>12.760295655</v>
+      </c>
+      <c r="BR8">
+        <v>16.046684481</v>
+      </c>
+      <c r="BS8">
+        <v>11.936359972</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
@@ -10191,20 +15144,95 @@
       <c r="AO9">
         <v>30</v>
       </c>
-      <c r="AP9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>65</v>
+      <c r="AP9">
+        <v>16.244075623000001</v>
+      </c>
+      <c r="AQ9">
+        <v>18.347524514</v>
+      </c>
+      <c r="AR9">
+        <v>17.972861167000001</v>
+      </c>
+      <c r="AS9">
+        <v>17.967549947999998</v>
+      </c>
+      <c r="AT9">
+        <v>19.643162353000001</v>
+      </c>
+      <c r="AU9">
+        <v>12.298308832</v>
+      </c>
+      <c r="AV9">
+        <v>15.947137231999999</v>
+      </c>
+      <c r="AW9">
+        <v>15.666905494</v>
+      </c>
+      <c r="AX9">
+        <v>13.315182095000001</v>
+      </c>
+      <c r="AY9">
+        <v>12.76959321</v>
+      </c>
+      <c r="AZ9">
+        <v>9.3098226759999996</v>
+      </c>
+      <c r="BA9">
+        <v>14.650534886999999</v>
+      </c>
+      <c r="BB9">
+        <v>11.273594034</v>
+      </c>
+      <c r="BC9">
+        <v>14.494332667</v>
+      </c>
+      <c r="BD9">
+        <v>11.842280476999999</v>
+      </c>
+      <c r="BE9">
+        <v>12.444263730999999</v>
+      </c>
+      <c r="BF9">
+        <v>11.657265977</v>
+      </c>
+      <c r="BG9">
+        <v>13.763976518</v>
+      </c>
+      <c r="BH9">
+        <v>13.601772478000001</v>
+      </c>
+      <c r="BI9">
+        <v>13.326776785</v>
+      </c>
+      <c r="BJ9">
+        <v>14.513640239000001</v>
+      </c>
+      <c r="BK9">
+        <v>18.978283993000002</v>
+      </c>
+      <c r="BL9">
+        <v>13.232776864</v>
+      </c>
+      <c r="BM9">
+        <v>14.393463587999999</v>
+      </c>
+      <c r="BN9">
+        <v>18.253049032</v>
+      </c>
+      <c r="BO9">
+        <v>15.979629439</v>
+      </c>
+      <c r="BP9">
+        <v>17.278762404999998</v>
+      </c>
+      <c r="BQ9">
+        <v>14.5313395</v>
+      </c>
+      <c r="BR9">
+        <v>13.994272495000001</v>
+      </c>
+      <c r="BS9">
+        <v>15.334598446999999</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
@@ -10231,6 +15259,9 @@
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
       <c r="AG11">
         <v>8</v>
       </c>
@@ -10251,6 +15282,9 @@
       </c>
       <c r="AM11">
         <v>2.332605</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
@@ -10296,6 +15330,51 @@
       <c r="AM12">
         <v>8.1899689999999996</v>
       </c>
+      <c r="AO12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -10346,8 +15425,128 @@
       <c r="AM13">
         <v>6.8808699999999998</v>
       </c>
-      <c r="AO13" t="s">
-        <v>31</v>
+      <c r="AO13">
+        <v>5</v>
+      </c>
+      <c r="AP13">
+        <f>$AO4/AP4</f>
+        <v>1.564198511838742</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" ref="AQ13:BS13" si="0">$AO4/AQ4</f>
+        <v>1.5321453442371853</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>3.0304549791523243</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="0"/>
+        <v>1.8866481356388953</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>1.3622839146684951</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="0"/>
+        <v>2.4242409608824262</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="0"/>
+        <v>3.8195247279365332</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="0"/>
+        <v>2.3249243468571317</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="0"/>
+        <v>1.7260286204045447</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="0"/>
+        <v>786.97759836787145</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="0"/>
+        <v>2.0708627668716915</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="0"/>
+        <v>2.447615475191391</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="0"/>
+        <v>2.4246045420166347</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="0"/>
+        <v>1.9236922515579022</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="0"/>
+        <v>4.7910207532262685</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="0"/>
+        <v>2.4142777523908689</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="0"/>
+        <v>2.4548773969075537</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="0"/>
+        <v>4.7782673422726401</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="0"/>
+        <v>1.9137877938684167</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="0"/>
+        <v>2.4481988110727899</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="0"/>
+        <v>2.3185240238967491</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="0"/>
+        <v>1.7105363651906191</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="0"/>
+        <v>1.6574561139806052</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="0"/>
+        <v>2.397420941242153</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="0"/>
+        <v>1.9402781575936949</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="0"/>
+        <v>3.1353871024354083</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="0"/>
+        <v>2.9069635276425663</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="0"/>
+        <v>1.6880979815526889</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="0"/>
+        <v>1.6903507456836944</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="0"/>
+        <v>1.8531005203985103</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
@@ -10355,27 +15554,27 @@
         <v>256</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B18" si="0">AVERAGE(B5:F5)</f>
+        <f t="shared" ref="B14:B18" si="1">AVERAGE(B5:F5)</f>
         <v>7.8698825999999995</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C18" si="1">AVERAGE(G5:K5)</f>
+        <f t="shared" ref="C14:C18" si="2">AVERAGE(G5:K5)</f>
         <v>99.590150799999989</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D18" si="2">AVERAGE(L5:P5)</f>
+        <f t="shared" ref="D14:D18" si="3">AVERAGE(L5:P5)</f>
         <v>68.412722000000002</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E18" si="3">AVERAGE(Q5:U5)</f>
+        <f t="shared" ref="E14:E18" si="4">AVERAGE(Q5:U5)</f>
         <v>11.510211399999999</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F18" si="4">AVERAGE(V5:Z5)</f>
+        <f t="shared" ref="F14:F18" si="5">AVERAGE(V5:Z5)</f>
         <v>478.02405660000005</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G18" si="5">AVERAGE(AA5:AE5)</f>
+        <f t="shared" ref="G14:G18" si="6">AVERAGE(AA5:AE5)</f>
         <v>43.687221199999996</v>
       </c>
       <c r="AG14">
@@ -10399,8 +15598,128 @@
       <c r="AM14">
         <v>4.819064</v>
       </c>
-      <c r="AO14" t="s">
-        <v>32</v>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" ref="AP14:BS14" si="7">$AO5/AP5</f>
+        <v>2.094060960710364</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="7"/>
+        <v>1.4871029624472829</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="7"/>
+        <v>1.9819831205687897</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="7"/>
+        <v>1.9952809526387343</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="7"/>
+        <v>1.4665682728804657</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="7"/>
+        <v>2.0118287220000988</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="7"/>
+        <v>4.8380720718026833</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="7"/>
+        <v>4.8028016517149945</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="7"/>
+        <v>1.5693487805457456</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="7"/>
+        <v>2.3287371211784231</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="7"/>
+        <v>1.8815802763013367</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="7"/>
+        <v>2.4050339156896725</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="7"/>
+        <v>3.1536376791826286</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="7"/>
+        <v>2.4313574975436962</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="7"/>
+        <v>3.0931385665306914</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="7"/>
+        <v>2.4104353831676231</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="7"/>
+        <v>3.2328843314665585</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="7"/>
+        <v>1.6973810869237027</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="7"/>
+        <v>2.9544935897534379</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="7"/>
+        <v>2.4392730735388048</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="7"/>
+        <v>1.9099536396991237</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="7"/>
+        <v>1.6659456773081531</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="7"/>
+        <v>1.6617953059416224</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="7"/>
+        <v>1.7345513107256056</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="7"/>
+        <v>1.8305950030167655</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="7"/>
+        <v>2.4910130880106922</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="7"/>
+        <v>1.9843241798857962</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="7"/>
+        <v>1.6618909764320609</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="7"/>
+        <v>1.6578059642862299</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" si="7"/>
+        <v>1.5938498033482931</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
@@ -10408,27 +15727,27 @@
         <v>512</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3236521999999997</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.2625156</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>378.76558400000005</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.388074599999999</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.460533799999999</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>320.17582040000002</v>
       </c>
       <c r="AG15">
@@ -10452,8 +15771,128 @@
       <c r="AM15">
         <v>6.197279</v>
       </c>
-      <c r="AO15" t="s">
-        <v>33</v>
+      <c r="AO15">
+        <v>15</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" ref="AP15:BS15" si="8">$AO6/AP6</f>
+        <v>1.5770121953419829</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="8"/>
+        <v>1.712471769463346</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="8"/>
+        <v>1.5077044187308788</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="8"/>
+        <v>1.4989733757694335</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="8"/>
+        <v>1.4291577399898183</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="8"/>
+        <v>2.29850625953175</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="8"/>
+        <v>2.9266817823758262</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="8"/>
+        <v>2.9242290837321185</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="8"/>
+        <v>2.9140207591295431</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="8"/>
+        <v>1.986484118855123</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="8"/>
+        <v>2.409985073291518</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="8"/>
+        <v>2.084416454892259</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="8"/>
+        <v>2.4429448595354022</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="8"/>
+        <v>1.8490895620157153</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="8"/>
+        <v>1.916965833594364</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="8"/>
+        <v>2.1199357704121544</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="8"/>
+        <v>1.822747931884344</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="8"/>
+        <v>2.2831644987449722</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="8"/>
+        <v>2.0658689062675455</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="8"/>
+        <v>2.8659512907439186</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="8"/>
+        <v>1.7132218602915406</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="8"/>
+        <v>1.8594043333139074</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="8"/>
+        <v>1.5342485851604737</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="8"/>
+        <v>2.0779203056269684</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="8"/>
+        <v>2.1084958418702811</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="8"/>
+        <v>3.8216131086816447</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="8"/>
+        <v>2.2746485208253038</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="8"/>
+        <v>1.496929597854086</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="8"/>
+        <v>2.4977544575476807</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" si="8"/>
+        <v>1.7168918336502808</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.25">
@@ -10461,27 +15900,27 @@
         <v>1024</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.4369</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.380614200000004</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.8184258</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6701461999999996</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.001706200000001</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>390.8270316</v>
       </c>
       <c r="AG16">
@@ -10505,36 +15944,156 @@
       <c r="AM16">
         <v>2.3601019999999999</v>
       </c>
-      <c r="AO16" t="s">
-        <v>34</v>
+      <c r="AO16">
+        <v>20</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" ref="AP16:BS16" si="9">$AO7/AP7</f>
+        <v>2.110407659102957</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="9"/>
+        <v>1.9987684402370014</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="9"/>
+        <v>1.7710374447716009</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="9"/>
+        <v>1.6204363261424251</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="9"/>
+        <v>1.7475858161642042</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="9"/>
+        <v>2.3453474708566366</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="9"/>
+        <v>6.4894267068185361</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="9"/>
+        <v>2.617137433215257</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="9"/>
+        <v>2.1713631857273099</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="9"/>
+        <v>1.8299523277472141</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="9"/>
+        <v>2.206185135223488</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="9"/>
+        <v>2.4380275946341845</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="9"/>
+        <v>2.0327798731817261</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="9"/>
+        <v>3.9030599003120057</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="9"/>
+        <v>2.2391824105508582</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="9"/>
+        <v>1.9832488216173614</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="9"/>
+        <v>2.1618145916885623</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="9"/>
+        <v>1.9681634704918234</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="9"/>
+        <v>2.6431053852783779</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="9"/>
+        <v>2.5715657949918937</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="9"/>
+        <v>1.9828821374094114</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="9"/>
+        <v>2.0511212280206617</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="9"/>
+        <v>4.006457449461327</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="9"/>
+        <v>1.9971305695305539</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="9"/>
+        <v>2.428971742928133</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" si="9"/>
+        <v>2.0532535982330717</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="9"/>
+        <v>1.8815712828076065</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="9"/>
+        <v>2.0596928393127185</v>
+      </c>
+      <c r="BR16">
+        <f t="shared" si="9"/>
+        <v>2.2300486547889911</v>
+      </c>
+      <c r="BS16">
+        <f t="shared" si="9"/>
+        <v>1.936478100802542</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1536</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.202306399999998</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.749407999999999</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.714885599999995</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.428428400000001</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>388.91089039999997</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>669.31070920000002</v>
       </c>
       <c r="AG17">
@@ -10558,36 +16117,156 @@
       <c r="AM17">
         <v>1955.895593</v>
       </c>
-      <c r="AO17" t="s">
-        <v>35</v>
+      <c r="AO17">
+        <v>25</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" ref="AP17:BS17" si="10">$AO8/AP8</f>
+        <v>1.6664617566404136</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="10"/>
+        <v>1.5389131259365314</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="10"/>
+        <v>1.4673078235279025</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="10"/>
+        <v>1.5634204663401161</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="10"/>
+        <v>1.5041578607253883</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="10"/>
+        <v>2.7127502395352767</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="10"/>
+        <v>2.1015597611448684</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="10"/>
+        <v>2.2204475112918094</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="10"/>
+        <v>2.71039099839478</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="10"/>
+        <v>1.5410034232288305</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="10"/>
+        <v>2.2134761003342316</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="10"/>
+        <v>3.0264677201921213</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="10"/>
+        <v>2.2724028000499308</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="10"/>
+        <v>2.2067852112101232</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="10"/>
+        <v>3.0079066868687772</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="10"/>
+        <v>2.518862859430623</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="10"/>
+        <v>2.7109822185386943</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="10"/>
+        <v>2.633074056430321</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="10"/>
+        <v>2.4380893789234248</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="10"/>
+        <v>2.4329090097443093</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="10"/>
+        <v>1.6759136371383494</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="10"/>
+        <v>1.4556247023383948</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="10"/>
+        <v>1.7563975181804903</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="10"/>
+        <v>1.6658721135250394</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" si="10"/>
+        <v>1.6134175271047078</v>
+      </c>
+      <c r="BO17">
+        <f t="shared" si="10"/>
+        <v>1.6666182308521023</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="10"/>
+        <v>1.9634236654680381</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="10"/>
+        <v>1.959202253296066</v>
+      </c>
+      <c r="BR17">
+        <f t="shared" si="10"/>
+        <v>1.5579542322029907</v>
+      </c>
+      <c r="BS17">
+        <f t="shared" si="10"/>
+        <v>2.0944408562278904</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2048</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400.45556979999998</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.410785000000001</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.647837599999999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.506518399999999</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>621.2451992</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>418.80906419999991</v>
       </c>
       <c r="AG18">
@@ -10611,11 +16290,131 @@
       <c r="AM18">
         <v>21.820522</v>
       </c>
-      <c r="AO18" t="s">
-        <v>36</v>
+      <c r="AO18">
+        <v>30</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" ref="AP18:BS18" si="11">$AO9/AP9</f>
+        <v>1.8468271569434813</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="11"/>
+        <v>1.6350979652382329</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="11"/>
+        <v>1.6691833159587883</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="11"/>
+        <v>1.6696767275907507</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="11"/>
+        <v>1.527248996922242</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="11"/>
+        <v>2.4393597859520724</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="11"/>
+        <v>1.8812153907976104</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="11"/>
+        <v>1.9148644262575776</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="11"/>
+        <v>2.2530671969754987</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="11"/>
+        <v>2.3493309071511135</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="11"/>
+        <v>3.2224029440794477</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="11"/>
+        <v>2.0477068060238666</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="11"/>
+        <v>2.6610857113998505</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="11"/>
+        <v>2.0697744897426396</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="11"/>
+        <v>2.5332958511045072</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="11"/>
+        <v>2.4107492936899733</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="11"/>
+        <v>2.5735022310712092</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="11"/>
+        <v>2.1796026722922082</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="11"/>
+        <v>2.205594899379701</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="11"/>
+        <v>2.2511069618699251</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="11"/>
+        <v>2.0670210578450319</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="11"/>
+        <v>1.5807540877281252</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" si="11"/>
+        <v>2.2670978516697824</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" si="11"/>
+        <v>2.0842794242388853</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="11"/>
+        <v>1.6435610262924318</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="11"/>
+        <v>1.877390218247601</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="11"/>
+        <v>1.7362354604354548</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="11"/>
+        <v>2.0645034134671483</v>
+      </c>
+      <c r="BR18">
+        <f t="shared" si="11"/>
+        <v>2.1437341605802422</v>
+      </c>
+      <c r="BS18">
+        <f t="shared" si="11"/>
+        <v>1.9563603249010464</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG19">
         <v>16</v>
       </c>
@@ -10637,11 +16436,8 @@
       <c r="AM19">
         <v>14.851436</v>
       </c>
-      <c r="AO19" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG20">
         <v>17</v>
       </c>
@@ -10664,10 +16460,10 @@
         <v>13.381159999999999</v>
       </c>
       <c r="AO20" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG21">
         <v>18</v>
       </c>
@@ -10690,10 +16486,28 @@
         <v>13.453692</v>
       </c>
       <c r="AO21" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG22">
         <v>19</v>
       </c>
@@ -10715,11 +16529,35 @@
       <c r="AM22">
         <v>16.641020000000001</v>
       </c>
-      <c r="AO22" t="s">
-        <v>40</v>
+      <c r="AO22">
+        <v>5</v>
+      </c>
+      <c r="AP22">
+        <f>AVERAGE(AP13:AT13)</f>
+        <v>1.8751461771071285</v>
+      </c>
+      <c r="AQ22">
+        <f>AVERAGE(AU13:AY13)</f>
+        <v>159.4544634047904</v>
+      </c>
+      <c r="AR22">
+        <f>AVERAGE(AZ13:BD13)</f>
+        <v>2.7315591577727778</v>
+      </c>
+      <c r="AS22">
+        <f>AVERAGE(BE13:BI13)</f>
+        <v>2.8018818193024542</v>
+      </c>
+      <c r="AT22">
+        <f>AVERAGE(BJ13:BN13)</f>
+        <v>2.0048431203807646</v>
+      </c>
+      <c r="AU22">
+        <f>AVERAGE(BO13:BS13)</f>
+        <v>2.2547799755425735</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG23">
         <v>20</v>
       </c>
@@ -10741,11 +16579,35 @@
       <c r="AM23">
         <v>8.5487529999999996</v>
       </c>
-      <c r="AO23" t="s">
-        <v>41</v>
+      <c r="AO23">
+        <v>10</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" ref="AP23:AP27" si="12">AVERAGE(AP14:AT14)</f>
+        <v>1.8049992538491275</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ27" si="13">AVERAGE(AU14:AY14)</f>
+        <v>3.1101576694483888</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR27" si="14">AVERAGE(AZ14:BD14)</f>
+        <v>2.5929495870496049</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS27" si="15">AVERAGE(BE14:BI14)</f>
+        <v>2.5468934929700255</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT27" si="16">AVERAGE(BJ14:BN14)</f>
+        <v>1.7605681873382539</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU27" si="17">AVERAGE(BO14:BS14)</f>
+        <v>1.8777768023926147</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG24">
         <v>21</v>
       </c>
@@ -10767,11 +16629,35 @@
       <c r="AM24">
         <v>4.9492289999999999</v>
       </c>
-      <c r="AO24" t="s">
-        <v>42</v>
+      <c r="AO24">
+        <v>15</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="12"/>
+        <v>1.5450638998590918</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="13"/>
+        <v>2.6099844007248718</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="14"/>
+        <v>2.1406803566658517</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="15"/>
+        <v>2.2315336796105867</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="16"/>
+        <v>1.8586581852526343</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="17"/>
+        <v>2.3615675037117989</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG25">
         <v>22</v>
       </c>
@@ -10793,11 +16679,35 @@
       <c r="AM25">
         <v>4.2524350000000002</v>
       </c>
-      <c r="AO25" t="s">
-        <v>43</v>
+      <c r="AO25">
+        <v>20</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="12"/>
+        <v>1.8496471372836374</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="13"/>
+        <v>3.0906454248729909</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="14"/>
+        <v>2.5638469827804524</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="15"/>
+        <v>2.2655796128136041</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="16"/>
+        <v>2.4933126254700175</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="17"/>
+        <v>2.0322088951889858</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG26">
         <v>23</v>
       </c>
@@ -10819,11 +16729,35 @@
       <c r="AM26">
         <v>2.3467690000000001</v>
       </c>
-      <c r="AO26" t="s">
-        <v>44</v>
+      <c r="AO26">
+        <v>25</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="12"/>
+        <v>1.5480522066340703</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="13"/>
+        <v>2.257230386719113</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="14"/>
+        <v>2.5454077037310365</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="15"/>
+        <v>2.5467835046134741</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="16"/>
+        <v>1.6334450996573964</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="17"/>
+        <v>1.8483278476094174</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG27">
         <v>24</v>
       </c>
@@ -10845,11 +16779,35 @@
       <c r="AM27">
         <v>1.7483169999999999</v>
       </c>
-      <c r="AO27" t="s">
-        <v>45</v>
+      <c r="AO27">
+        <v>30</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="12"/>
+        <v>1.6696068325306992</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="13"/>
+        <v>2.1675675414267745</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="14"/>
+        <v>2.5068531604700626</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="15"/>
+        <v>2.3241112116606031</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="16"/>
+        <v>1.9285426895548514</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="17"/>
+        <v>1.9556447155262986</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG28">
         <v>25</v>
       </c>
@@ -10871,13 +16829,10 @@
       <c r="AM28">
         <v>7.7569520000000001</v>
       </c>
-      <c r="AO28" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="29" spans="1:41" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -10907,11 +16862,8 @@
       <c r="AM29">
         <v>5.9003249999999996</v>
       </c>
-      <c r="AO29" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AG30">
         <v>27</v>
       </c>
@@ -10933,11 +16885,11 @@
       <c r="AM30">
         <v>3.4556249999999999</v>
       </c>
-      <c r="AO30" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
       <c r="AG31">
         <v>28</v>
       </c>
@@ -10959,11 +16911,29 @@
       <c r="AM31">
         <v>4.7168559999999999</v>
       </c>
-      <c r="AO31" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
       <c r="AG32">
         <v>29</v>
       </c>
@@ -10985,11 +16955,35 @@
       <c r="AM32">
         <v>2.6084909999999999</v>
       </c>
-      <c r="AO32" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="33" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <f>MEDIAN(B4:F4)</f>
+        <v>2.843804</v>
+      </c>
+      <c r="C33">
+        <f>MEDIAN(G4:K4)</f>
+        <v>10.589828000000001</v>
+      </c>
+      <c r="D33">
+        <f>MEDIAN(L4:P4)</f>
+        <v>14.655666</v>
+      </c>
+      <c r="E33">
+        <f>MEDIAN(Q4:U4)</f>
+        <v>12.646274999999999</v>
+      </c>
+      <c r="F33">
+        <f>MEDIAN(V4:Z4)</f>
+        <v>32.104626000000003</v>
+      </c>
+      <c r="G33">
+        <f>MEDIAN(AA4:AE4)</f>
+        <v>22.430675000000001</v>
+      </c>
       <c r="AG33">
         <v>30</v>
       </c>
@@ -11011,11 +17005,35 @@
       <c r="AM33">
         <v>2.18466</v>
       </c>
-      <c r="AO33" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="34" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>256</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B38" si="18">MEDIAN(B5:F5)</f>
+        <v>4.0039829999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C38" si="19">MEDIAN(G5:K5)</f>
+        <v>12.087343000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D38" si="20">MEDIAN(L5:P5)</f>
+        <v>35.014443</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E38" si="21">MEDIAN(Q5:U5)</f>
+        <v>10.927873</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F38" si="22">MEDIAN(V5:Z5)</f>
+        <v>220.55251699999999</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G38" si="23">MEDIAN(AA5:AE5)</f>
+        <v>18.266541</v>
+      </c>
       <c r="AG34">
         <v>31</v>
       </c>
@@ -11037,11 +17055,35 @@
       <c r="AM34">
         <v>4.6730320000000001</v>
       </c>
-      <c r="AO34" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="35" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>512</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="18"/>
+        <v>3.4509919999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="19"/>
+        <v>14.157425999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>217.414906</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="21"/>
+        <v>7.5417459999999998</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="22"/>
+        <v>4.298343</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="23"/>
+        <v>5.6121220000000003</v>
+      </c>
       <c r="AG35">
         <v>32</v>
       </c>
@@ -11063,11 +17105,35 @@
       <c r="AM35">
         <v>12.98231</v>
       </c>
-      <c r="AO35" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="36" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1024</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="18"/>
+        <v>4.9999260000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="19"/>
+        <v>10.23474</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="20"/>
+        <v>9.3850210000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>2.3267709999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="22"/>
+        <v>6.6124520000000002</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="23"/>
+        <v>6.3946230000000002</v>
+      </c>
       <c r="AG36">
         <v>33</v>
       </c>
@@ -11089,11 +17155,35 @@
       <c r="AM36">
         <v>1.942129</v>
       </c>
-      <c r="AO36" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="37" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1536</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="18"/>
+        <v>10.748805000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="19"/>
+        <v>6.960432</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="20"/>
+        <v>18.152114000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="21"/>
+        <v>10.041304999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="22"/>
+        <v>11.129417</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="23"/>
+        <v>169.23287400000001</v>
+      </c>
       <c r="AG37">
         <v>34</v>
       </c>
@@ -11115,11 +17205,35 @@
       <c r="AM37">
         <v>1.6581969999999999</v>
       </c>
-      <c r="AO37" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="38" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2048</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="18"/>
+        <v>393.013642</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="19"/>
+        <v>5.3049770000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="20"/>
+        <v>12.246885000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="21"/>
+        <v>13.829211000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="22"/>
+        <v>19.597429000000002</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="23"/>
+        <v>17.841666</v>
+      </c>
       <c r="AG38">
         <v>35</v>
       </c>
@@ -11141,11 +17255,8 @@
       <c r="AM38">
         <v>2.2611150000000002</v>
       </c>
-      <c r="AO38" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="39" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG39">
         <v>36</v>
       </c>
@@ -11167,11 +17278,8 @@
       <c r="AM39">
         <v>3.8463120000000002</v>
       </c>
-      <c r="AO39" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="40" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG40">
         <v>37</v>
       </c>
@@ -11193,11 +17301,8 @@
       <c r="AM40">
         <v>4.586379</v>
       </c>
-      <c r="AO40" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="41" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG41">
         <v>38</v>
       </c>
@@ -11219,11 +17324,8 @@
       <c r="AM41">
         <v>3.492667</v>
       </c>
-      <c r="AO41" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="42" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG42">
         <v>39</v>
       </c>
@@ -11245,11 +17347,8 @@
       <c r="AM42">
         <v>3.0889679999999999</v>
       </c>
-      <c r="AO42" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="43" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG43">
         <v>40</v>
       </c>
@@ -11271,28 +17370,10 @@
       <c r="AM43">
         <v>2.9983170000000001</v>
       </c>
-      <c r="AO43" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="44" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AO44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AO45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="33:41" x14ac:dyDescent="0.25">
-      <c r="AO46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG47" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AH47" t="s">
         <v>15</v>
@@ -11312,11 +17393,8 @@
       <c r="AM47" t="s">
         <v>22</v>
       </c>
-      <c r="AO47" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="48" spans="33:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AG48">
         <v>0</v>
       </c>
@@ -11597,7 +17675,7 @@
     </row>
     <row r="61" spans="24:39" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X61" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -11608,7 +17686,11 @@
       <c r="AE61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BN12"/>
+    <mergeCell ref="BO12:BS12"/>
     <mergeCell ref="I29:P29"/>
     <mergeCell ref="X61:AE61"/>
     <mergeCell ref="BO3:BS3"/>
@@ -11623,6 +17705,8 @@
     <mergeCell ref="AZ3:BD3"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BJ3:BN3"/>
+    <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="AU12:AY12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11632,47 +17716,2554 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17740F3C-C3DE-4CB9-8643-F87BE264DED1}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AA2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>810.81</v>
+      </c>
+      <c r="C3">
+        <v>476.19</v>
+      </c>
+      <c r="D3">
+        <v>1071.43</v>
+      </c>
+      <c r="E3">
+        <v>483.87</v>
+      </c>
+      <c r="F3">
+        <v>441.18</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>1500</v>
+      </c>
+      <c r="I3">
+        <v>3333.33</v>
+      </c>
+      <c r="J3">
+        <v>1666.67</v>
+      </c>
+      <c r="K3">
+        <v>2500</v>
+      </c>
+      <c r="L3">
+        <v>588.24</v>
+      </c>
+      <c r="M3">
+        <v>352.94</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>2142.86</v>
+      </c>
+      <c r="P3">
+        <v>1363.64</v>
+      </c>
+      <c r="Q3">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="R3">
+        <v>52.91</v>
+      </c>
+      <c r="S3">
+        <v>2142.86</v>
+      </c>
+      <c r="T3">
+        <v>666.67</v>
+      </c>
+      <c r="U3">
+        <v>1428.57</v>
+      </c>
+      <c r="V3">
+        <v>857.14</v>
+      </c>
+      <c r="W3">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="X3">
+        <v>3750</v>
+      </c>
+      <c r="Y3">
+        <v>1000</v>
+      </c>
+      <c r="Z3">
+        <v>1578.95</v>
+      </c>
+      <c r="AA3">
+        <v>3750</v>
+      </c>
+      <c r="AB3">
+        <v>612.24</v>
+      </c>
+      <c r="AC3">
+        <v>810.81</v>
+      </c>
+      <c r="AD3">
+        <v>201.34</v>
+      </c>
+      <c r="AE3">
+        <v>555.55999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>731.71</v>
+      </c>
+      <c r="C4">
+        <v>95.24</v>
+      </c>
+      <c r="D4">
+        <v>769.23</v>
+      </c>
+      <c r="E4">
+        <v>833.33</v>
+      </c>
+      <c r="F4">
+        <v>810.81</v>
+      </c>
+      <c r="G4">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="H4">
+        <v>4285.71</v>
+      </c>
+      <c r="I4">
+        <v>3750</v>
+      </c>
+      <c r="J4">
+        <v>5000</v>
+      </c>
+      <c r="K4">
+        <v>4285.71</v>
+      </c>
+      <c r="L4">
+        <v>45.52</v>
+      </c>
+      <c r="M4">
+        <v>1363.64</v>
+      </c>
+      <c r="N4">
+        <v>833.33</v>
+      </c>
+      <c r="O4">
+        <v>810.81</v>
+      </c>
+      <c r="P4">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+      <c r="S4">
+        <v>447.76</v>
+      </c>
+      <c r="T4">
+        <v>1200</v>
+      </c>
+      <c r="U4">
+        <v>3750</v>
+      </c>
+      <c r="V4">
+        <v>857.14</v>
+      </c>
+      <c r="W4">
+        <v>476.19</v>
+      </c>
+      <c r="X4">
+        <v>1666.67</v>
+      </c>
+      <c r="Y4">
+        <v>731.71</v>
+      </c>
+      <c r="Z4">
+        <v>1578.95</v>
+      </c>
+      <c r="AA4">
+        <v>3333.33</v>
+      </c>
+      <c r="AB4">
+        <v>1428.57</v>
+      </c>
+      <c r="AC4">
+        <v>434.78</v>
+      </c>
+      <c r="AD4">
+        <v>3333.33</v>
+      </c>
+      <c r="AE4">
+        <v>1764.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>576.91999999999996</v>
+      </c>
+      <c r="C5">
+        <v>178.57</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+      <c r="F5">
+        <v>468.75</v>
+      </c>
+      <c r="G5">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="H5">
+        <v>2727.27</v>
+      </c>
+      <c r="I5">
+        <v>3750</v>
+      </c>
+      <c r="J5">
+        <v>3750</v>
+      </c>
+      <c r="K5">
+        <v>5000</v>
+      </c>
+      <c r="L5">
+        <v>967.74</v>
+      </c>
+      <c r="M5">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="N5">
+        <v>1363.64</v>
+      </c>
+      <c r="O5">
+        <v>2727.27</v>
+      </c>
+      <c r="P5">
+        <v>1500</v>
+      </c>
+      <c r="Q5">
+        <v>697.67</v>
+      </c>
+      <c r="R5">
+        <v>600</v>
+      </c>
+      <c r="S5">
+        <v>882.35</v>
+      </c>
+      <c r="T5">
+        <v>1428.57</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>517.24</v>
+      </c>
+      <c r="W5">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="X5">
+        <v>267.86</v>
+      </c>
+      <c r="Y5">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>105.63</v>
+      </c>
+      <c r="AA5">
+        <v>535.71</v>
+      </c>
+      <c r="AB5">
+        <v>1666.67</v>
+      </c>
+      <c r="AC5">
+        <v>857.14</v>
+      </c>
+      <c r="AD5">
+        <v>1578.95</v>
+      </c>
+      <c r="AE5">
+        <v>1764.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>612.24</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6">
+        <v>967.74</v>
+      </c>
+      <c r="E6">
+        <v>121.46</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <v>379.75</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="J6">
+        <v>789.47</v>
+      </c>
+      <c r="K6">
+        <v>1363.64</v>
+      </c>
+      <c r="L6">
+        <v>789.47</v>
+      </c>
+      <c r="M6">
+        <v>1666.67</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+      <c r="O6">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="P6">
+        <v>810.81</v>
+      </c>
+      <c r="Q6">
+        <v>2000</v>
+      </c>
+      <c r="R6">
+        <v>909.09</v>
+      </c>
+      <c r="S6">
+        <v>937.5</v>
+      </c>
+      <c r="T6">
+        <v>312.5</v>
+      </c>
+      <c r="U6">
+        <v>810.81</v>
+      </c>
+      <c r="V6">
+        <v>1000</v>
+      </c>
+      <c r="W6">
+        <v>588.24</v>
+      </c>
+      <c r="X6">
+        <v>1200</v>
+      </c>
+      <c r="Y6">
+        <v>312.5</v>
+      </c>
+      <c r="Z6">
+        <v>1363.64</v>
+      </c>
+      <c r="AA6">
+        <v>1875</v>
+      </c>
+      <c r="AB6">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="AC6">
+        <v>612.24</v>
+      </c>
+      <c r="AD6">
+        <v>666.67</v>
+      </c>
+      <c r="AE6">
+        <v>428.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>306.12</v>
+      </c>
+      <c r="C7">
+        <v>35.76</v>
+      </c>
+      <c r="D7">
+        <v>2307.69</v>
+      </c>
+      <c r="E7">
+        <v>1200</v>
+      </c>
+      <c r="F7">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="G7">
+        <v>731.71</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>1250</v>
+      </c>
+      <c r="J7">
+        <v>1500</v>
+      </c>
+      <c r="K7">
+        <v>2500</v>
+      </c>
+      <c r="L7">
+        <v>2500</v>
+      </c>
+      <c r="M7">
+        <v>1578.95</v>
+      </c>
+      <c r="N7">
+        <v>1875</v>
+      </c>
+      <c r="O7">
+        <v>1200</v>
+      </c>
+      <c r="P7">
+        <v>769.23</v>
+      </c>
+      <c r="Q7">
+        <v>1666.67</v>
+      </c>
+      <c r="R7">
+        <v>2000</v>
+      </c>
+      <c r="S7">
+        <v>857.14</v>
+      </c>
+      <c r="T7">
+        <v>2000</v>
+      </c>
+      <c r="U7">
+        <v>1200</v>
+      </c>
+      <c r="V7">
+        <v>937.5</v>
+      </c>
+      <c r="W7">
+        <v>416.67</v>
+      </c>
+      <c r="X7">
+        <v>1200</v>
+      </c>
+      <c r="Y7">
+        <v>70.59</v>
+      </c>
+      <c r="Z7">
+        <v>3333.33</v>
+      </c>
+      <c r="AA7">
+        <v>44.31</v>
+      </c>
+      <c r="AB7">
+        <v>30</v>
+      </c>
+      <c r="AC7">
+        <v>1071.43</v>
+      </c>
+      <c r="AD7">
+        <v>576.91999999999996</v>
+      </c>
+      <c r="AE7">
+        <v>857.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>697.67</v>
+      </c>
+      <c r="C8">
+        <v>731.71</v>
+      </c>
+      <c r="D8">
+        <v>2142.86</v>
+      </c>
+      <c r="E8">
+        <v>48.08</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <v>714.29</v>
+      </c>
+      <c r="H8">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="I8">
+        <v>394.74</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <v>1578.95</v>
+      </c>
+      <c r="L8">
+        <v>3750</v>
+      </c>
+      <c r="M8">
+        <v>937.5</v>
+      </c>
+      <c r="N8">
+        <v>1363.64</v>
+      </c>
+      <c r="O8">
+        <v>3750</v>
+      </c>
+      <c r="P8">
+        <v>681.82</v>
+      </c>
+      <c r="Q8">
+        <v>2000</v>
+      </c>
+      <c r="R8">
+        <v>85.47</v>
+      </c>
+      <c r="S8">
+        <v>833.33</v>
+      </c>
+      <c r="T8">
+        <v>555.55999999999995</v>
+      </c>
+      <c r="U8">
+        <v>588.24</v>
+      </c>
+      <c r="V8">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="W8">
+        <v>63.03</v>
+      </c>
+      <c r="X8">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>5000</v>
+      </c>
+      <c r="Z8">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="AA8">
+        <v>1071.43</v>
+      </c>
+      <c r="AB8">
+        <v>348.84</v>
+      </c>
+      <c r="AC8">
+        <v>967.74</v>
+      </c>
+      <c r="AD8">
+        <v>410.96</v>
+      </c>
+      <c r="AE8">
+        <v>909.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>71.09</v>
+      </c>
+      <c r="C9">
+        <v>810.81</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>612.24</v>
+      </c>
+      <c r="F9">
+        <v>1071.43</v>
+      </c>
+      <c r="G9">
+        <v>81.97</v>
+      </c>
+      <c r="H9">
+        <v>517.24</v>
+      </c>
+      <c r="I9">
+        <v>833.33</v>
+      </c>
+      <c r="J9">
+        <v>697.67</v>
+      </c>
+      <c r="K9">
+        <v>833.33</v>
+      </c>
+      <c r="L9">
+        <v>2142.86</v>
+      </c>
+      <c r="M9">
+        <v>833.33</v>
+      </c>
+      <c r="N9">
+        <v>160.43</v>
+      </c>
+      <c r="O9">
+        <v>576.91999999999996</v>
+      </c>
+      <c r="P9">
+        <v>1428.57</v>
+      </c>
+      <c r="Q9">
+        <v>750</v>
+      </c>
+      <c r="R9">
+        <v>118.58</v>
+      </c>
+      <c r="S9">
+        <v>625</v>
+      </c>
+      <c r="T9">
+        <v>2500</v>
+      </c>
+      <c r="U9">
+        <v>361.45</v>
+      </c>
+      <c r="V9">
+        <v>937.5</v>
+      </c>
+      <c r="W9">
+        <v>789.47</v>
+      </c>
+      <c r="X9">
+        <v>1428.57</v>
+      </c>
+      <c r="Y9">
+        <v>1250</v>
+      </c>
+      <c r="Z9">
+        <v>789.47</v>
+      </c>
+      <c r="AA9">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="AB9">
+        <v>1250</v>
+      </c>
+      <c r="AC9">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="AD9">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="AE9">
+        <v>810.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>588.24</v>
+      </c>
+      <c r="E10">
+        <v>1071.43</v>
+      </c>
+      <c r="F10">
+        <v>434.78</v>
+      </c>
+      <c r="G10">
+        <v>422.54</v>
+      </c>
+      <c r="H10">
+        <v>379.75</v>
+      </c>
+      <c r="I10">
+        <v>285.70999999999998</v>
+      </c>
+      <c r="J10">
+        <v>789.47</v>
+      </c>
+      <c r="K10">
+        <v>1034.48</v>
+      </c>
+      <c r="L10">
+        <v>1666.67</v>
+      </c>
+      <c r="M10">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="N10">
+        <v>750</v>
+      </c>
+      <c r="O10">
+        <v>1875</v>
+      </c>
+      <c r="P10">
+        <v>1250</v>
+      </c>
+      <c r="Q10">
+        <v>731.71</v>
+      </c>
+      <c r="R10">
+        <v>1363.64</v>
+      </c>
+      <c r="S10">
+        <v>1071.43</v>
+      </c>
+      <c r="T10">
+        <v>1578.95</v>
+      </c>
+      <c r="U10">
+        <v>3000</v>
+      </c>
+      <c r="V10">
+        <v>967.74</v>
+      </c>
+      <c r="W10">
+        <v>810.81</v>
+      </c>
+      <c r="X10">
+        <v>1071.43</v>
+      </c>
+      <c r="Y10">
+        <v>1578.95</v>
+      </c>
+      <c r="Z10">
+        <v>666.67</v>
+      </c>
+      <c r="AA10">
+        <v>789.47</v>
+      </c>
+      <c r="AB10">
+        <v>285.70999999999998</v>
+      </c>
+      <c r="AC10">
+        <v>1250</v>
+      </c>
+      <c r="AD10">
+        <v>769.23</v>
+      </c>
+      <c r="AE10">
+        <v>681.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>2307.69</v>
+      </c>
+      <c r="C11">
+        <v>517.24</v>
+      </c>
+      <c r="D11">
+        <v>1428.57</v>
+      </c>
+      <c r="E11">
+        <v>612.24</v>
+      </c>
+      <c r="F11">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="G11">
+        <v>125</v>
+      </c>
+      <c r="H11">
+        <v>588.24</v>
+      </c>
+      <c r="I11">
+        <v>2727.27</v>
+      </c>
+      <c r="J11">
+        <v>967.74</v>
+      </c>
+      <c r="K11">
+        <v>937.5</v>
+      </c>
+      <c r="L11">
+        <v>1578.95</v>
+      </c>
+      <c r="M11">
+        <v>1250</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+      <c r="O11">
+        <v>833.33</v>
+      </c>
+      <c r="P11">
+        <v>937.5</v>
+      </c>
+      <c r="Q11">
+        <v>967.74</v>
+      </c>
+      <c r="R11">
+        <v>119.52</v>
+      </c>
+      <c r="S11">
+        <v>937.5</v>
+      </c>
+      <c r="T11">
+        <v>500</v>
+      </c>
+      <c r="U11">
+        <v>2500</v>
+      </c>
+      <c r="V11">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="W11">
+        <v>833.33</v>
+      </c>
+      <c r="X11">
+        <v>697.67</v>
+      </c>
+      <c r="Y11">
+        <v>300</v>
+      </c>
+      <c r="Z11">
+        <v>937.5</v>
+      </c>
+      <c r="AA11">
+        <v>588.24</v>
+      </c>
+      <c r="AB11">
+        <v>85.96</v>
+      </c>
+      <c r="AC11">
+        <v>566.04</v>
+      </c>
+      <c r="AD11">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>428.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>625</v>
+      </c>
+      <c r="C12">
+        <v>2142.86</v>
+      </c>
+      <c r="D12">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="E12">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="F12">
+        <v>7.4</v>
+      </c>
+      <c r="G12">
+        <v>108.7</v>
+      </c>
+      <c r="H12">
+        <v>132.16</v>
+      </c>
+      <c r="I12">
+        <v>3333.33</v>
+      </c>
+      <c r="J12">
+        <v>508.47</v>
+      </c>
+      <c r="K12">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="L12">
+        <v>789.47</v>
+      </c>
+      <c r="M12">
+        <v>1578.95</v>
+      </c>
+      <c r="N12">
+        <v>1578.95</v>
+      </c>
+      <c r="O12">
+        <v>365.85</v>
+      </c>
+      <c r="P12">
+        <v>1250</v>
+      </c>
+      <c r="Q12">
+        <v>97.09</v>
+      </c>
+      <c r="R12">
+        <v>1000</v>
+      </c>
+      <c r="S12">
+        <v>909.09</v>
+      </c>
+      <c r="T12">
+        <v>2000</v>
+      </c>
+      <c r="U12">
+        <v>322.58</v>
+      </c>
+      <c r="V12">
+        <v>329.67</v>
+      </c>
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
+        <v>909.09</v>
+      </c>
+      <c r="Y12">
+        <v>810.81</v>
+      </c>
+      <c r="Z12">
+        <v>3333.33</v>
+      </c>
+      <c r="AA12">
+        <v>461.54</v>
+      </c>
+      <c r="AB12">
+        <v>566.04</v>
+      </c>
+      <c r="AC12">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="AD12">
+        <v>1000</v>
+      </c>
+      <c r="AE12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>468.75</v>
+      </c>
+      <c r="C13">
+        <v>2142.86</v>
+      </c>
+      <c r="D13">
+        <v>2307.69</v>
+      </c>
+      <c r="E13">
+        <v>29.15</v>
+      </c>
+      <c r="F13">
+        <v>1363.64</v>
+      </c>
+      <c r="G13">
+        <v>2142.86</v>
+      </c>
+      <c r="H13">
+        <v>937.5</v>
+      </c>
+      <c r="I13">
+        <v>1428.57</v>
+      </c>
+      <c r="J13">
+        <v>357.14</v>
+      </c>
+      <c r="K13">
+        <v>1363.64</v>
+      </c>
+      <c r="L13">
+        <v>937.5</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13">
+        <v>967.74</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+      <c r="P13">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="Q13">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="R13">
+        <v>230.77</v>
+      </c>
+      <c r="S13">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="T13">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="U13">
+        <v>1071.43</v>
+      </c>
+      <c r="V13">
+        <v>714.29</v>
+      </c>
+      <c r="W13">
+        <v>566.04</v>
+      </c>
+      <c r="X13">
+        <v>769.23</v>
+      </c>
+      <c r="Y13">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="Z13">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="AA13">
+        <v>2500</v>
+      </c>
+      <c r="AB13">
+        <v>810.81</v>
+      </c>
+      <c r="AC13">
+        <v>326.08999999999997</v>
+      </c>
+      <c r="AD13">
+        <v>697.67</v>
+      </c>
+      <c r="AE13">
+        <v>1578.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>681.82</v>
+      </c>
+      <c r="C14">
+        <v>394.74</v>
+      </c>
+      <c r="D14">
+        <v>2307.69</v>
+      </c>
+      <c r="E14">
+        <v>491.8</v>
+      </c>
+      <c r="F14">
+        <v>2500</v>
+      </c>
+      <c r="G14">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="H14">
+        <v>491.8</v>
+      </c>
+      <c r="I14">
+        <v>428.57</v>
+      </c>
+      <c r="J14">
+        <v>1363.64</v>
+      </c>
+      <c r="K14">
+        <v>1034.48</v>
+      </c>
+      <c r="L14">
+        <v>1666.67</v>
+      </c>
+      <c r="M14">
+        <v>1071.43</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="P14">
+        <v>1034.48</v>
+      </c>
+      <c r="Q14">
+        <v>1200</v>
+      </c>
+      <c r="R14">
+        <v>882.35</v>
+      </c>
+      <c r="S14">
+        <v>967.74</v>
+      </c>
+      <c r="T14">
+        <v>1500</v>
+      </c>
+      <c r="U14">
+        <v>410.96</v>
+      </c>
+      <c r="V14">
+        <v>666.67</v>
+      </c>
+      <c r="W14">
+        <v>600</v>
+      </c>
+      <c r="X14">
+        <v>1764.71</v>
+      </c>
+      <c r="Y14">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="Z14">
+        <v>1578.95</v>
+      </c>
+      <c r="AA14">
+        <v>1578.95</v>
+      </c>
+      <c r="AB14">
+        <v>857.14</v>
+      </c>
+      <c r="AC14">
+        <v>1764.71</v>
+      </c>
+      <c r="AD14">
+        <v>967.74</v>
+      </c>
+      <c r="AE14">
+        <v>322.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>1428.57</v>
+      </c>
+      <c r="C15">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>750</v>
+      </c>
+      <c r="F15">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+      <c r="H15">
+        <v>70.75</v>
+      </c>
+      <c r="I15">
+        <v>1666.67</v>
+      </c>
+      <c r="J15">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="K15">
+        <v>681.82</v>
+      </c>
+      <c r="L15">
+        <v>967.74</v>
+      </c>
+      <c r="M15">
+        <v>1764.71</v>
+      </c>
+      <c r="N15">
+        <v>555.55999999999995</v>
+      </c>
+      <c r="O15">
+        <v>810.81</v>
+      </c>
+      <c r="P15">
+        <v>384.62</v>
+      </c>
+      <c r="Q15">
+        <v>666.67</v>
+      </c>
+      <c r="R15">
+        <v>117.19</v>
+      </c>
+      <c r="S15">
+        <v>1071.43</v>
+      </c>
+      <c r="T15">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="U15">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="V15">
+        <v>967.74</v>
+      </c>
+      <c r="W15">
+        <v>405.41</v>
+      </c>
+      <c r="X15">
+        <v>1250</v>
+      </c>
+      <c r="Y15">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="Z15">
+        <v>22.42</v>
+      </c>
+      <c r="AA15">
+        <v>909.09</v>
+      </c>
+      <c r="AB15">
+        <v>1200</v>
+      </c>
+      <c r="AC15">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="AD15">
+        <v>535.71</v>
+      </c>
+      <c r="AE15">
+        <v>1034.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>288.45999999999998</v>
+      </c>
+      <c r="C16">
+        <v>810.81</v>
+      </c>
+      <c r="D16">
+        <v>476.19</v>
+      </c>
+      <c r="E16">
+        <v>491.8</v>
+      </c>
+      <c r="F16">
+        <v>1034.48</v>
+      </c>
+      <c r="G16">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="H16">
+        <v>1034.48</v>
+      </c>
+      <c r="I16">
+        <v>2307.69</v>
+      </c>
+      <c r="J16">
+        <v>909.09</v>
+      </c>
+      <c r="K16">
+        <v>535.71</v>
+      </c>
+      <c r="L16">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="M16">
+        <v>967.74</v>
+      </c>
+      <c r="N16">
+        <v>410.96</v>
+      </c>
+      <c r="O16">
+        <v>1764.71</v>
+      </c>
+      <c r="P16">
+        <v>2142.86</v>
+      </c>
+      <c r="Q16">
+        <v>882.35</v>
+      </c>
+      <c r="R16">
+        <v>291.26</v>
+      </c>
+      <c r="S16">
+        <v>769.23</v>
+      </c>
+      <c r="T16">
+        <v>1428.57</v>
+      </c>
+      <c r="U16">
+        <v>882.35</v>
+      </c>
+      <c r="V16">
+        <v>483.87</v>
+      </c>
+      <c r="W16">
+        <v>566.04</v>
+      </c>
+      <c r="X16">
+        <v>416.67</v>
+      </c>
+      <c r="Y16">
+        <v>1250</v>
+      </c>
+      <c r="Z16">
+        <v>476.19</v>
+      </c>
+      <c r="AA16">
+        <v>111.11</v>
+      </c>
+      <c r="AB16">
+        <v>857.14</v>
+      </c>
+      <c r="AC16">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="AD16">
+        <v>1034.48</v>
+      </c>
+      <c r="AE16">
+        <v>909.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>789.47</v>
+      </c>
+      <c r="C17">
+        <v>95.54</v>
+      </c>
+      <c r="D17">
+        <v>833.33</v>
+      </c>
+      <c r="E17">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="F17">
+        <v>666.67</v>
+      </c>
+      <c r="G17">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="H17">
+        <v>3333.33</v>
+      </c>
+      <c r="I17">
+        <v>238.1</v>
+      </c>
+      <c r="J17">
+        <v>909.09</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>769.23</v>
+      </c>
+      <c r="M17">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="N17">
+        <v>1875</v>
+      </c>
+      <c r="O17">
+        <v>612.24</v>
+      </c>
+      <c r="P17">
+        <v>1875</v>
+      </c>
+      <c r="Q17">
+        <v>1363.64</v>
+      </c>
+      <c r="R17">
+        <v>1200</v>
+      </c>
+      <c r="S17">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="T17">
+        <v>288.45999999999998</v>
+      </c>
+      <c r="U17">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="V17">
+        <v>535.71</v>
+      </c>
+      <c r="W17">
+        <v>750</v>
+      </c>
+      <c r="X17">
+        <v>937.5</v>
+      </c>
+      <c r="Y17">
+        <v>1000</v>
+      </c>
+      <c r="Z17">
+        <v>1500</v>
+      </c>
+      <c r="AA17">
+        <v>1071.43</v>
+      </c>
+      <c r="AB17">
+        <v>789.47</v>
+      </c>
+      <c r="AC17">
+        <v>1000</v>
+      </c>
+      <c r="AD17">
+        <v>833.33</v>
+      </c>
+      <c r="AE17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>483.87</v>
+      </c>
+      <c r="C18">
+        <v>114.94</v>
+      </c>
+      <c r="D18">
+        <v>535.71</v>
+      </c>
+      <c r="E18">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="F18">
+        <v>789.47</v>
+      </c>
+      <c r="G18">
+        <v>1764.71</v>
+      </c>
+      <c r="H18">
+        <v>1250</v>
+      </c>
+      <c r="I18">
+        <v>132.16</v>
+      </c>
+      <c r="J18">
+        <v>1250</v>
+      </c>
+      <c r="K18">
+        <v>223.88</v>
+      </c>
+      <c r="L18">
+        <v>697.67</v>
+      </c>
+      <c r="M18">
+        <v>697.67</v>
+      </c>
+      <c r="N18">
+        <v>714.29</v>
+      </c>
+      <c r="O18">
+        <v>833.33</v>
+      </c>
+      <c r="P18">
+        <v>2000</v>
+      </c>
+      <c r="Q18">
+        <v>909.09</v>
+      </c>
+      <c r="R18">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="S18">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="T18">
+        <v>104.53</v>
+      </c>
+      <c r="U18">
+        <v>329.67</v>
+      </c>
+      <c r="V18">
+        <v>666.67</v>
+      </c>
+      <c r="W18">
+        <v>731.71</v>
+      </c>
+      <c r="X18">
+        <v>588.24</v>
+      </c>
+      <c r="Y18">
+        <v>769.23</v>
+      </c>
+      <c r="Z18">
+        <v>333.33</v>
+      </c>
+      <c r="AA18">
+        <v>1428.57</v>
+      </c>
+      <c r="AB18">
+        <v>149.25</v>
+      </c>
+      <c r="AC18">
+        <v>394.74</v>
+      </c>
+      <c r="AD18">
+        <v>937.5</v>
+      </c>
+      <c r="AE18">
+        <v>1363.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>697.67</v>
+      </c>
+      <c r="C19">
+        <v>182.93</v>
+      </c>
+      <c r="D19">
+        <v>833.33</v>
+      </c>
+      <c r="E19">
+        <v>625</v>
+      </c>
+      <c r="F19">
+        <v>810.81</v>
+      </c>
+      <c r="G19">
+        <v>1250</v>
+      </c>
+      <c r="H19">
+        <v>2142.86</v>
+      </c>
+      <c r="I19">
+        <v>769.23</v>
+      </c>
+      <c r="J19">
+        <v>1428.57</v>
+      </c>
+      <c r="K19">
+        <v>1250</v>
+      </c>
+      <c r="L19">
+        <v>337.08</v>
+      </c>
+      <c r="M19">
+        <v>1250</v>
+      </c>
+      <c r="N19">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="O19">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="P19">
+        <v>1071.43</v>
+      </c>
+      <c r="Q19">
+        <v>909.09</v>
+      </c>
+      <c r="R19">
+        <v>84.51</v>
+      </c>
+      <c r="S19">
+        <v>612.24</v>
+      </c>
+      <c r="T19">
+        <v>1250</v>
+      </c>
+      <c r="U19">
+        <v>2142.86</v>
+      </c>
+      <c r="V19">
+        <v>714.29</v>
+      </c>
+      <c r="W19">
+        <v>236.22</v>
+      </c>
+      <c r="X19">
+        <v>1034.48</v>
+      </c>
+      <c r="Y19">
+        <v>243.9</v>
+      </c>
+      <c r="Z19">
+        <v>3000</v>
+      </c>
+      <c r="AA19">
+        <v>769.23</v>
+      </c>
+      <c r="AB19">
+        <v>600</v>
+      </c>
+      <c r="AC19">
+        <v>422.54</v>
+      </c>
+      <c r="AD19">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="AE19">
+        <v>416.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>588.24</v>
+      </c>
+      <c r="C20">
+        <v>461.54</v>
+      </c>
+      <c r="D20">
+        <v>576.91999999999996</v>
+      </c>
+      <c r="E20">
+        <v>1666.67</v>
+      </c>
+      <c r="F20">
+        <v>625</v>
+      </c>
+      <c r="G20">
+        <v>1071.43</v>
+      </c>
+      <c r="H20">
+        <v>400</v>
+      </c>
+      <c r="I20">
+        <v>810.81</v>
+      </c>
+      <c r="J20">
+        <v>198.68</v>
+      </c>
+      <c r="K20">
+        <v>833.33</v>
+      </c>
+      <c r="L20">
+        <v>50.93</v>
+      </c>
+      <c r="M20">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="N20">
+        <v>697.67</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="P20">
+        <v>1034.48</v>
+      </c>
+      <c r="Q20">
+        <v>1071.43</v>
+      </c>
+      <c r="R20">
+        <v>1428.57</v>
+      </c>
+      <c r="S20">
+        <v>500</v>
+      </c>
+      <c r="T20">
+        <v>31.81</v>
+      </c>
+      <c r="U20">
+        <v>2000</v>
+      </c>
+      <c r="V20">
+        <v>1111.1099999999999</v>
+      </c>
+      <c r="W20">
+        <v>909.09</v>
+      </c>
+      <c r="X20">
+        <v>1363.64</v>
+      </c>
+      <c r="Y20">
+        <v>500</v>
+      </c>
+      <c r="Z20">
+        <v>2000</v>
+      </c>
+      <c r="AA20">
+        <v>750</v>
+      </c>
+      <c r="AB20">
+        <v>69.61</v>
+      </c>
+      <c r="AC20">
+        <v>714.29</v>
+      </c>
+      <c r="AD20">
+        <v>555.55999999999995</v>
+      </c>
+      <c r="AE20">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>789.47</v>
+      </c>
+      <c r="C21">
+        <v>434.78</v>
+      </c>
+      <c r="D21">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E21">
+        <v>2500</v>
+      </c>
+      <c r="F21">
+        <v>697.67</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>1200</v>
+      </c>
+      <c r="I21">
+        <v>26.53</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <v>2142.86</v>
+      </c>
+      <c r="L21">
+        <v>375</v>
+      </c>
+      <c r="M21">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="N21">
+        <v>2000</v>
+      </c>
+      <c r="O21">
+        <v>714.29</v>
+      </c>
+      <c r="P21">
+        <v>2000</v>
+      </c>
+      <c r="Q21">
+        <v>1200</v>
+      </c>
+      <c r="R21">
+        <v>1000</v>
+      </c>
+      <c r="S21">
+        <v>681.82</v>
+      </c>
+      <c r="T21">
+        <v>218.98</v>
+      </c>
+      <c r="U21">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="V21">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="W21">
+        <v>937.5</v>
+      </c>
+      <c r="X21">
+        <v>789.47</v>
+      </c>
+      <c r="Y21">
+        <v>769.23</v>
+      </c>
+      <c r="Z21">
+        <v>2500</v>
+      </c>
+      <c r="AA21">
+        <v>180.72</v>
+      </c>
+      <c r="AB21">
+        <v>35.89</v>
+      </c>
+      <c r="AC21">
+        <v>1500</v>
+      </c>
+      <c r="AD21">
+        <v>454.55</v>
+      </c>
+      <c r="AE21">
+        <v>1111.1099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>810.81</v>
+      </c>
+      <c r="D22">
+        <v>937.5</v>
+      </c>
+      <c r="E22">
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <v>43.17</v>
+      </c>
+      <c r="G22">
+        <v>1153.8499999999999</v>
+      </c>
+      <c r="H22">
+        <v>1304.3499999999999</v>
+      </c>
+      <c r="I22">
+        <v>566.04</v>
+      </c>
+      <c r="J22">
+        <v>1500</v>
+      </c>
+      <c r="K22">
+        <v>2142.86</v>
+      </c>
+      <c r="L22">
+        <v>1500</v>
+      </c>
+      <c r="M22">
+        <v>247.93</v>
+      </c>
+      <c r="N22">
+        <v>468.75</v>
+      </c>
+      <c r="O22">
+        <v>882.35</v>
+      </c>
+      <c r="P22">
+        <v>441.18</v>
+      </c>
+      <c r="Q22">
+        <v>810.81</v>
+      </c>
+      <c r="R22">
+        <v>882.35</v>
+      </c>
+      <c r="S22">
+        <v>212.77</v>
+      </c>
+      <c r="T22">
+        <v>1363.64</v>
+      </c>
+      <c r="U22">
+        <v>625</v>
+      </c>
+      <c r="V22">
+        <v>526.32000000000005</v>
+      </c>
+      <c r="W22">
+        <v>750</v>
+      </c>
+      <c r="X22">
+        <v>833.33</v>
+      </c>
+      <c r="Y22">
+        <v>1000</v>
+      </c>
+      <c r="Z22">
+        <v>2500</v>
+      </c>
+      <c r="AA22">
+        <v>1578.95</v>
+      </c>
+      <c r="AB22">
+        <v>652.16999999999996</v>
+      </c>
+      <c r="AC22">
+        <v>2500</v>
+      </c>
+      <c r="AD22">
+        <v>625</v>
+      </c>
+      <c r="AE22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B3:F3)</f>
+        <v>656.69600000000003</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(G3:K3)</f>
+        <v>2000</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(L3:P3)</f>
+        <v>1089.5360000000001</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(Q3:U3)</f>
+        <v>967.29200000000003</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(V3:Z3)</f>
+        <v>1659.44</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(AA3:AE3)</f>
+        <v>1185.9899999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B45" si="0">AVERAGE(B4:F4)</f>
+        <v>648.06400000000008</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C45" si="1">AVERAGE(G4:K4)</f>
+        <v>3591.9440000000004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D45" si="2">AVERAGE(L4:P4)</f>
+        <v>741.09400000000005</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E45" si="3">AVERAGE(Q4:U4)</f>
+        <v>1299.5520000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F45" si="4">AVERAGE(V4:Z4)</f>
+        <v>1062.1320000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G45" si="5">AVERAGE(AA4:AE4)</f>
+        <v>2058.9439999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>694.84799999999996</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>3154.5440000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>1439.39</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>921.71800000000007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>569.45000000000005</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>1280.636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>890.28800000000012</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>642.92000000000007</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>981.05</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>993.9799999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>892.87599999999998</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>844.15599999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1000.684</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1596.3420000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>1584.636</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1544.7620000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>1191.6179999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>515.95999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1324.0639999999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>742.86</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>2096.5919999999996</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>812.51999999999987</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>1263.1560000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>741.61200000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>913.11400000000015</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>592.70799999999997</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>1028.422</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>871.00599999999997</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1039.002</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>870.08199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>741.11199999999985</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>582.39</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>1339.104</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>1549.1460000000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>1019.1200000000001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>755.24600000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>989.18999999999994</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1069.1500000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1119.9559999999999</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1004.952</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>814.56999999999994</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>464.19600000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>595.6880000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>946.96600000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>1112.644</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>865.75200000000007</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>1276.58</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>1136.2860000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1262.4180000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>1245.9420000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1086.3119999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>552.77</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>901.55200000000002</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>1182.704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1275.21</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>794.13200000000006</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1185.2860000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>992.21</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>1182.9359999999999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>1098.2239999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1088.7060000000001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1006.0699999999999</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>896.68799999999987</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>832.59799999999996</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>545.46199999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>966.62599999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>620.34800000000007</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>1188.1640000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>1318.1240000000003</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>850.75200000000007</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>638.55399999999997</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>804.58600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>484.48400000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>1356.9740000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>1248.5160000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1062.06</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>944.64200000000005</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>938.84599999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>493.88800000000003</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>924.15</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>988.59199999999998</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>608.51800000000014</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>617.83600000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>854.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>629.94799999999998</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1368.1320000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>789.79600000000005</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>999.74000000000012</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>1045.7779999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>572.12200000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>783.67399999999998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>662.84999999999991</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>778.83799999999997</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>1006.3619999999999</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>1176.768</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>492.892</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>943.79</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>1073.8780000000002</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>1248.6279999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>850.93</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>1129.6740000000002</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>656.45400000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1158.2959999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1333.42</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>708.04200000000003</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>778.91399999999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>1121.9299999999998</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>1471.2239999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/24.4.24~24.4.30/实验数据.xlsx
+++ b/24.4.24~24.4.30/实验数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.4.24~24.4.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C7ACE-BA20-443B-8A23-BC7D1EC253BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226C796-36DD-4049-B56E-04C333CF5342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5064" yWindow="432" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 任务调度实验" sheetId="1" r:id="rId1"/>
@@ -11874,7 +11874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
+    <sheetView topLeftCell="N2" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:K8"/>
     </sheetView>
   </sheetViews>
@@ -13831,8 +13831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD26F85-BF7F-4FAF-9C84-3CBC2FAE3348}">
   <dimension ref="A1:BS61"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BA19" sqref="BA19"/>
+    <sheetView tabSelected="1" topLeftCell="AR23" workbookViewId="0">
+      <selection activeCell="AU28" sqref="AU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17687,7 +17687,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AZ12:BD12"/>
     <mergeCell ref="BE12:BI12"/>
     <mergeCell ref="BJ12:BN12"/>
     <mergeCell ref="BO12:BS12"/>
@@ -17707,6 +17706,7 @@
     <mergeCell ref="BJ3:BN3"/>
     <mergeCell ref="AP12:AT12"/>
     <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:BD12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17718,7 +17718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17740F3C-C3DE-4CB9-8643-F87BE264DED1}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>

--- a/24.4.24~24.4.30/实验数据.xlsx
+++ b/24.4.24~24.4.30/实验数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.4.24~24.4.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C7BBE-0248-40EA-81AC-CF2F26367DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4078EADB-805E-44DF-902A-07AD65A025C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31991,8 +31991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -38923,6 +38923,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BN12"/>
+    <mergeCell ref="BO12:BS12"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="X61:AE61"/>
+    <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:BD12"/>
     <mergeCell ref="BO3:BS3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>
@@ -38935,14 +38943,6 @@
     <mergeCell ref="AZ3:BD3"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BJ3:BN3"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BN12"/>
-    <mergeCell ref="BO12:BS12"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="X61:AE61"/>
-    <mergeCell ref="AP12:AT12"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AZ12:BD12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/24.4.24~24.4.30/实验数据.xlsx
+++ b/24.4.24~24.4.30/实验数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\罗熙项目\毕设\笔记\24.4.24~24.4.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4078EADB-805E-44DF-902A-07AD65A025C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F06EB8-A3CB-45FD-8BF5-0129E8AADDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 任务调度实验" sheetId="1" r:id="rId1"/>
@@ -1711,8 +1711,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>发送数据</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="zh-CN"/>
-                  <a:t>包大小（字节）</a:t>
+                  <a:t>大小（字节）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15970,8 +15976,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>发送数据</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="zh-CN"/>
-                  <a:t>包大小</a:t>
+                  <a:t>大小</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -31991,7 +32003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
@@ -34415,8 +34427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD26F85-BF7F-4FAF-9C84-3CBC2FAE3348}">
   <dimension ref="A1:BS81"/>
   <sheetViews>
-    <sheetView topLeftCell="AO9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV44" sqref="AV44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -38923,14 +38935,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BN12"/>
-    <mergeCell ref="BO12:BS12"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="X61:AE61"/>
-    <mergeCell ref="AP12:AT12"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AZ12:BD12"/>
     <mergeCell ref="BO3:BS3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>
@@ -38943,6 +38947,14 @@
     <mergeCell ref="AZ3:BD3"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BJ3:BN3"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BN12"/>
+    <mergeCell ref="BO12:BS12"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="X61:AE61"/>
+    <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:BD12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
